--- a/public/Reporte_mov_por_categoria.xlsx
+++ b/public/Reporte_mov_por_categoria.xlsx
@@ -636,22 +636,22 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>107.0</v>
+        <v>110.0</v>
       </c>
       <c r="D8" s="4">
-        <v>2154.91</v>
+        <v>2504.91</v>
       </c>
       <c r="E8" s="4">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F8" s="4">
-        <v>164.857</v>
+        <v>281.524</v>
       </c>
       <c r="G8" s="4">
-        <v>101.0</v>
+        <v>103.0</v>
       </c>
       <c r="H8" s="4">
-        <v>1990.053</v>
+        <v>2223.386</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -662,22 +662,22 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>10.0</v>
+        <v>35.0</v>
       </c>
       <c r="D9" s="4">
-        <v>100.0</v>
+        <v>342.0</v>
       </c>
       <c r="E9" s="4">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="F9" s="4">
-        <v>40.0</v>
+        <v>83.5</v>
       </c>
       <c r="G9" s="4">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="H9" s="4">
-        <v>60.0</v>
+        <v>258.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -714,22 +714,22 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>206.0</v>
+        <v>224.0</v>
       </c>
       <c r="D11" s="4">
-        <v>1530.45</v>
+        <v>1712.02</v>
       </c>
       <c r="E11" s="4">
-        <v>65.0</v>
+        <v>72.0</v>
       </c>
       <c r="F11" s="4">
-        <v>535.67</v>
+        <v>578.869</v>
       </c>
       <c r="G11" s="4">
-        <v>141.0</v>
+        <v>152.0</v>
       </c>
       <c r="H11" s="4">
-        <v>994.78</v>
+        <v>1133.151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -740,17 +740,17 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5">
         <f>SUM(D7:D12)</f>
-        <v>6822.095</v>
+        <v>7595.665</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
         <f>SUM(F7:F12)</f>
-        <v>1276.621</v>
+        <v>1479.987</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5">
         <f>SUM(H7:H12)</f>
-        <v>5545.474</v>
+        <v>6115.678</v>
       </c>
     </row>
   </sheetData>
